--- a/LOI/COI/COI-Liu.xlsx
+++ b/LOI/COI/COI-Liu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="17000" tabRatio="500"/>
+    <workbookView xWindow="8720" yWindow="220" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="COI-Liu.txt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>Ankit</t>
   </si>
@@ -244,13 +244,73 @@
   </si>
   <si>
     <t>Stony Brook University</t>
+  </si>
+  <si>
+    <t>Collaborator</t>
+  </si>
+  <si>
+    <t>Co-author</t>
+  </si>
+  <si>
+    <t>Ghani</t>
+  </si>
+  <si>
+    <t>Nasir</t>
+  </si>
+  <si>
+    <t>USF</t>
+  </si>
+  <si>
+    <t>Advisor</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Chang</t>
+  </si>
+  <si>
+    <t>PPPL</t>
+  </si>
+  <si>
+    <t>Ku</t>
+  </si>
+  <si>
+    <t>Seung-Hoe</t>
+  </si>
+  <si>
+    <t>Hager</t>
+  </si>
+  <si>
+    <t>Kwan-Liu</t>
+  </si>
+  <si>
+    <t>Childs</t>
+  </si>
+  <si>
+    <t>Hank</t>
+  </si>
+  <si>
+    <t>University of Oregon</t>
+  </si>
+  <si>
+    <t>Moreland</t>
+  </si>
+  <si>
+    <t>Shen</t>
+  </si>
+  <si>
+    <t>Han-wei</t>
+  </si>
+  <si>
+    <t>Ohio State University</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -274,6 +334,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -292,7 +359,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -316,11 +383,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -332,6 +438,25 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -343,6 +468,25 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -672,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -683,7 +827,7 @@
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -693,8 +837,11 @@
       <c r="C1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -704,8 +851,11 @@
       <c r="C2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -715,8 +865,11 @@
       <c r="C3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -726,8 +879,11 @@
       <c r="C4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -737,269 +893,456 @@
       <c r="C5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>67</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="D14" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
         <v>70</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="D15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="D17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="D18" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>59</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="D20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>72</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B23" t="s">
         <v>73</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C23" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="D23" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>65</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
         <v>64</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="D24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="D25" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="D26" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="D27" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="D28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C29" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="D29" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C30" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="D30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C32" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="D32" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C33" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="D33" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
         <v>56</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B34" t="s">
         <v>55</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C34" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="D34" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B35" t="s">
         <v>39</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C35" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="D35" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
         <v>42</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B36" t="s">
         <v>41</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C36" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="D36" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
         <v>62</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B37" t="s">
         <v>61</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C37" t="s">
         <v>63</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
